--- a/wutc - имена собственные - перевод.xlsx
+++ b/wutc - имена собственные - перевод.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/Library/CloudStorage/Dropbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2492F3F2-B79C-4872-86EF-1C2E1A224DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5540E49-EA08-0442-BA36-9E5F9A0A5A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15520" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="210">
   <si>
     <t>Faroe</t>
   </si>
@@ -627,6 +627,48 @@
   </si>
   <si>
     <t>Wax of Refusal</t>
+  </si>
+  <si>
+    <t>Ailish</t>
+  </si>
+  <si>
+    <t>Айлиш</t>
+  </si>
+  <si>
+    <t>Hrafnkel</t>
+  </si>
+  <si>
+    <t>Храфнкель</t>
+  </si>
+  <si>
+    <t>Cuana</t>
+  </si>
+  <si>
+    <t>Куана</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Дилан</t>
+  </si>
+  <si>
+    <t>Atiq</t>
+  </si>
+  <si>
+    <t>Атик</t>
+  </si>
+  <si>
+    <t>Meaghan</t>
+  </si>
+  <si>
+    <t>Миган</t>
+  </si>
+  <si>
+    <t>Maebh</t>
+  </si>
+  <si>
+    <t>Мэйб</t>
   </si>
 </sst>
 </file>
@@ -705,15 +747,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1033,26 +1074,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -1084,897 +1125,680 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="M2" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="J3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
+      <c r="M3" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="J4" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
+      <c r="M4" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="J5" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="M5" t="s">
         <v>130</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" t="s">
         <v>131</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="J6" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
+      <c r="M6" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="J7" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
+      <c r="M7" t="s">
         <v>142</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="J8" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" t="s">
         <v>144</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" t="s">
         <v>145</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
+      <c r="M9" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="J10" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" t="s">
         <v>135</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
+      <c r="M10" t="s">
         <v>169</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" t="s">
         <v>170</v>
       </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
+      <c r="J11" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" t="s">
         <v>134</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
+      <c r="M11" t="s">
         <v>173</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" t="s">
         <v>174</v>
       </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
+      <c r="J12" t="s">
         <v>138</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" t="s">
         <v>139</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
+      <c r="M12" t="s">
         <v>175</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" t="s">
         <v>176</v>
       </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="J13" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="s">
+      <c r="M13" t="s">
         <v>178</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" t="s">
         <v>179</v>
       </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
+      <c r="J14" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" t="s">
         <v>150</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="M14" t="s">
         <v>182</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" t="s">
         <v>183</v>
       </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
+      <c r="J15" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
+      <c r="M15" t="s">
         <v>186</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" t="s">
         <v>187</v>
       </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
+      <c r="J16" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" t="s">
         <v>153</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
+      <c r="M16" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" t="s">
         <v>192</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s">
         <v>184</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>185</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="J17" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
+      <c r="M17" t="s">
         <v>193</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" t="s">
         <v>194</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
+      <c r="J18" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
+      <c r="J19" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>198</v>
+      </c>
+      <c r="N19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="J20" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>200</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="J21" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>202</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
+      <c r="J22" t="s">
         <v>160</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="J23" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
+      <c r="J24" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" t="s">
         <v>172</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="J25" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
+      <c r="J26" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" t="s">
         <v>190</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="J27" t="s">
         <v>195</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" t="s">
         <v>189</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">

--- a/wutc - имена собственные - перевод.xlsx
+++ b/wutc - имена собственные - перевод.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/Library/CloudStorage/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\Downloads\wutc-rus-main\wutc-rus-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5540E49-EA08-0442-BA36-9E5F9A0A5A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8A7A79-C8AB-41B7-8578-8C35E219EF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15520" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -500,9 +500,6 @@
     <t>Eyebiter</t>
   </si>
   <si>
-    <t>Куссачий глаз</t>
-  </si>
-  <si>
     <t>Райс/Райский</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>Мэйб</t>
+  </si>
+  <si>
+    <t>Кусачий глаз</t>
   </si>
 </sst>
 </file>
@@ -1075,25 +1075,25 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -1157,7 +1157,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1189,10 +1189,10 @@
         <v>127</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1398,13 +1398,13 @@
         <v>135</v>
       </c>
       <c r="M10" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" t="s">
         <v>169</v>
       </c>
-      <c r="N10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1424,13 +1424,13 @@
         <v>134</v>
       </c>
       <c r="M11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N11" t="s">
         <v>173</v>
       </c>
-      <c r="N11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1450,13 +1450,13 @@
         <v>139</v>
       </c>
       <c r="M12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N12" t="s">
         <v>175</v>
       </c>
-      <c r="N12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1476,13 +1476,13 @@
         <v>141</v>
       </c>
       <c r="M13" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" t="s">
         <v>178</v>
       </c>
-      <c r="N13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1502,13 +1502,13 @@
         <v>150</v>
       </c>
       <c r="M14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" t="s">
         <v>182</v>
       </c>
-      <c r="N14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1528,13 +1528,13 @@
         <v>151</v>
       </c>
       <c r="M15" t="s">
+        <v>185</v>
+      </c>
+      <c r="N15" t="s">
         <v>186</v>
       </c>
-      <c r="N15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1551,16 +1551,16 @@
         <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="M16" t="s">
+        <v>190</v>
+      </c>
+      <c r="N16" t="s">
         <v>191</v>
       </c>
-      <c r="N16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1568,25 +1568,25 @@
         <v>59</v>
       </c>
       <c r="G17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" t="s">
         <v>184</v>
       </c>
-      <c r="H17" t="s">
-        <v>185</v>
-      </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s">
+        <v>192</v>
+      </c>
+      <c r="N17" t="s">
         <v>193</v>
       </c>
-      <c r="N17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1594,19 +1594,19 @@
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s">
+        <v>195</v>
+      </c>
+      <c r="N18" t="s">
         <v>196</v>
       </c>
-      <c r="N18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1614,19 +1614,19 @@
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s">
+        <v>197</v>
+      </c>
+      <c r="N19" t="s">
         <v>198</v>
       </c>
-      <c r="N19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1634,19 +1634,19 @@
         <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s">
+        <v>199</v>
+      </c>
+      <c r="N20" t="s">
         <v>200</v>
       </c>
-      <c r="N20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -1654,19 +1654,19 @@
         <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s">
+        <v>201</v>
+      </c>
+      <c r="N21" t="s">
         <v>202</v>
       </c>
-      <c r="N21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1674,19 +1674,19 @@
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" t="s">
         <v>204</v>
       </c>
-      <c r="N22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1694,19 +1694,19 @@
         <v>50</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N23" t="s">
         <v>206</v>
       </c>
-      <c r="N23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -1714,19 +1714,19 @@
         <v>51</v>
       </c>
       <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
         <v>171</v>
       </c>
-      <c r="K24" t="s">
-        <v>172</v>
-      </c>
       <c r="M24" t="s">
+        <v>207</v>
+      </c>
+      <c r="N24" t="s">
         <v>208</v>
       </c>
-      <c r="N24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -1734,13 +1734,13 @@
         <v>52</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1748,13 +1748,13 @@
         <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -1762,13 +1762,13 @@
         <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>

--- a/wutc - имена собственные - перевод.xlsx
+++ b/wutc - имена собственные - перевод.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\Downloads\wutc-rus-main\wutc-rus-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8A7A79-C8AB-41B7-8578-8C35E219EF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFAAE28-1240-4EFC-9A51-EB2F56A66447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="245">
   <si>
     <t>Faroe</t>
   </si>
@@ -669,23 +669,119 @@
   </si>
   <si>
     <t>Кусачий глаз</t>
+  </si>
+  <si>
+    <t>Guthram</t>
+  </si>
+  <si>
+    <t>Гутрам</t>
+  </si>
+  <si>
+    <t>Варяжский</t>
+  </si>
+  <si>
+    <t>Fallen Druids</t>
+  </si>
+  <si>
+    <t>Павшие друиды</t>
+  </si>
+  <si>
+    <t>Thrasir</t>
+  </si>
+  <si>
+    <t>Трасир</t>
+  </si>
+  <si>
+    <t>Salt-Rimed Thomas</t>
+  </si>
+  <si>
+    <t>Томас Соляная Каёмка</t>
+  </si>
+  <si>
+    <t>Ylmo, the Last Bear</t>
+  </si>
+  <si>
+    <t>Ильмо, последний медведь</t>
+  </si>
+  <si>
+    <t>The Roaming Court</t>
+  </si>
+  <si>
+    <t>Бродячий двор</t>
+  </si>
+  <si>
+    <t>Cadoc</t>
+  </si>
+  <si>
+    <t>Кадок</t>
+  </si>
+  <si>
+    <t>Mithel</t>
+  </si>
+  <si>
+    <t>Митэл</t>
+  </si>
+  <si>
+    <t>Flodaigh</t>
+  </si>
+  <si>
+    <t>Флодей</t>
+  </si>
+  <si>
+    <t>Sibhinis</t>
+  </si>
+  <si>
+    <t>Tarasaigh</t>
+  </si>
+  <si>
+    <t>Тарасай</t>
+  </si>
+  <si>
+    <t>Sanndraigh</t>
+  </si>
+  <si>
+    <t>Сандрей</t>
+  </si>
+  <si>
+    <t>Сибинис</t>
+  </si>
+  <si>
+    <t>Miughalaigh</t>
+  </si>
+  <si>
+    <t>Мингалей</t>
+  </si>
+  <si>
+    <t>Lothing</t>
+  </si>
+  <si>
+    <t>Лотинг</t>
+  </si>
+  <si>
+    <t>Orasaigh</t>
+  </si>
+  <si>
+    <t>Оросей</t>
+  </si>
+  <si>
+    <t>Mhealasta</t>
+  </si>
+  <si>
+    <t>Мелиста</t>
+  </si>
+  <si>
+    <t>Bheithir</t>
+  </si>
+  <si>
+    <t>Бейтир</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -749,15 +845,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1072,732 +1168,862 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J19" t="s">
+      <c r="H19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J20" t="s">
+      <c r="H20" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J21" t="s">
+      <c r="H21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="L21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J22" t="s">
+      <c r="H22" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J23" t="s">
+      <c r="H23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="L23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J24" t="s">
+      <c r="H24" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J25" t="s">
+      <c r="H25" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="L25" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="N25" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J26" t="s">
+      <c r="H26" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J27" t="s">
+      <c r="H27" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="N27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="H28" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="N29" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="N30" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N32" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/wutc - имена собственные - перевод.xlsx
+++ b/wutc - имена собственные - перевод.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFAAE28-1240-4EFC-9A51-EB2F56A66447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3EBC36-D08A-4E06-85B1-49162F9393AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="257">
   <si>
     <t>Faroe</t>
   </si>
@@ -774,6 +774,42 @@
   </si>
   <si>
     <t>Бейтир</t>
+  </si>
+  <si>
+    <t>Baeddan</t>
+  </si>
+  <si>
+    <t>Баэддан</t>
+  </si>
+  <si>
+    <t>Bedwyr</t>
+  </si>
+  <si>
+    <t>Бедвир</t>
+  </si>
+  <si>
+    <t>Esni</t>
+  </si>
+  <si>
+    <t>Эсни</t>
+  </si>
+  <si>
+    <t>Cei</t>
+  </si>
+  <si>
+    <t>Цей</t>
+  </si>
+  <si>
+    <t>Stolen Star</t>
+  </si>
+  <si>
+    <t>Украденная звезда</t>
+  </si>
+  <si>
+    <t>Javelin of Thorns</t>
+  </si>
+  <si>
+    <t>Дрот шипов</t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,6 +1989,12 @@
       <c r="I28" s="5" t="s">
         <v>242</v>
       </c>
+      <c r="K28" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="N28" s="5" t="s">
         <v>215</v>
       </c>
@@ -1967,6 +2009,12 @@
       <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="K29" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="N29" s="5" t="s">
         <v>217</v>
       </c>
@@ -2024,6 +2072,38 @@
       </c>
       <c r="O34" s="5" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N35" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N36" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/wutc - имена собственные - перевод.xlsx
+++ b/wutc - имена собственные - перевод.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/git projects/wutc-rus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3EBC36-D08A-4E06-85B1-49162F9393AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74855599-D8AE-9943-AE23-5DF2F225E935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15520" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="258">
   <si>
     <t>Faroe</t>
   </si>
@@ -810,6 +810,9 @@
   </si>
   <si>
     <t>Дрот шипов</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -883,13 +886,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1207,31 +1210,30 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -1263,64 +1265,64 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" t="s">
         <v>105</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" t="s">
         <v>126</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1330,429 +1332,429 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" t="s">
         <v>107</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" t="s">
         <v>108</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" t="s">
         <v>113</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" t="s">
         <v>136</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" t="s">
         <v>118</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" t="s">
         <v>142</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>212</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" t="s">
         <v>120</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" t="s">
         <v>144</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" t="s">
         <v>117</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" t="s">
         <v>146</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" t="s">
         <v>132</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" t="s">
         <v>135</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" t="s">
         <v>168</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" t="s">
         <v>134</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" t="s">
         <v>139</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" t="s">
         <v>174</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" t="s">
         <v>140</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" t="s">
         <v>141</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" t="s">
         <v>177</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" t="s">
         <v>148</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" t="s">
         <v>150</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" t="s">
         <v>149</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" t="s">
         <v>151</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" t="s">
         <v>185</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" t="s">
         <v>152</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" t="s">
         <v>209</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" t="s">
         <v>190</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>184</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" t="s">
         <v>154</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" t="s">
         <v>192</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" t="s">
         <v>155</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" t="s">
         <v>195</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1761,212 +1763,212 @@
       <c r="I19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" t="s">
         <v>156</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" t="s">
         <v>197</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>210</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>211</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" t="s">
         <v>157</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" t="s">
         <v>199</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" t="s">
         <v>227</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" t="s">
         <v>228</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" t="s">
         <v>158</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" t="s">
         <v>201</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" t="s">
         <v>234</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" t="s">
         <v>159</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" t="s">
         <v>203</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>230</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" t="s">
         <v>231</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" t="s">
         <v>160</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" t="s">
         <v>205</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" t="s">
         <v>232</v>
       </c>
       <c r="I24" t="s">
         <v>233</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" t="s">
         <v>170</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" t="s">
         <v>171</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" t="s">
         <v>207</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" t="s">
         <v>235</v>
       </c>
       <c r="I25" t="s">
         <v>236</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" t="s">
         <v>180</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" t="s">
         <v>213</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" t="s">
         <v>237</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" t="s">
         <v>238</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" t="s">
         <v>187</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" t="s">
         <v>239</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" t="s">
         <v>240</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" t="s">
         <v>194</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" t="s">
         <v>188</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -1976,133 +1978,136 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" t="s">
         <v>241</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" t="s">
         <v>242</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" t="s">
         <v>253</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" t="s">
         <v>254</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" t="s">
         <v>215</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" t="s">
         <v>255</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" t="s">
         <v>256</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" t="s">
         <v>217</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="K30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="N30" t="s">
         <v>219</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" t="s">
         <v>221</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N32" s="5" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
         <v>223</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N33" s="5" t="s">
+    <row r="33" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
         <v>225</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N34" s="5" t="s">
+    <row r="34" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
         <v>243</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N35" s="5" t="s">
+    <row r="35" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
         <v>245</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N36" s="5" t="s">
+    <row r="36" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
         <v>247</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N37" s="5" t="s">
+    <row r="37" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N37" t="s">
         <v>249</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N38" s="5" t="s">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
         <v>251</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" t="s">
         <v>252</v>
       </c>
     </row>

--- a/wutc - имена собственные - перевод.xlsx
+++ b/wutc - имена собственные - перевод.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/git projects/wutc-rus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\Downloads\wutc-rus-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74855599-D8AE-9943-AE23-5DF2F225E935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB2A2C-5268-418F-B3A9-3D2BCFCE2CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15520" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="305">
   <si>
     <t>Faroe</t>
   </si>
@@ -602,9 +602,6 @@
     <t>Гуайре</t>
   </si>
   <si>
-    <t>Ships Head</t>
-  </si>
-  <si>
     <t>Воск отказа</t>
   </si>
   <si>
@@ -812,7 +809,151 @@
     <t>Дрот шипов</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>Сабина</t>
+  </si>
+  <si>
+    <t>Cowry Shells</t>
+  </si>
+  <si>
+    <t>Genealogical Tree</t>
+  </si>
+  <si>
+    <t>Drowning Weights</t>
+  </si>
+  <si>
+    <t>Bitter Builders</t>
+  </si>
+  <si>
+    <t>Seeking Dark</t>
+  </si>
+  <si>
+    <t>Blood of Command</t>
+  </si>
+  <si>
+    <t>War-mask, Wolf</t>
+  </si>
+  <si>
+    <t>Reviled Ointment</t>
+  </si>
+  <si>
+    <t>Uspar</t>
+  </si>
+  <si>
+    <t>The Opener</t>
+  </si>
+  <si>
+    <t>Gold Imitations</t>
+  </si>
+  <si>
+    <t>Золотые имитации</t>
+  </si>
+  <si>
+    <t>Генеалогическое древо</t>
+  </si>
+  <si>
+    <t>Тонущие грузы</t>
+  </si>
+  <si>
+    <t>Кровь командования</t>
+  </si>
+  <si>
+    <t>Успар</t>
+  </si>
+  <si>
+    <t>Ракушки каури</t>
+  </si>
+  <si>
+    <t>Ожесточённые строители</t>
+  </si>
+  <si>
+    <t>Ищущая тьма</t>
+  </si>
+  <si>
+    <t>Боевая маска, волк</t>
+  </si>
+  <si>
+    <t>Погибель Буля</t>
+  </si>
+  <si>
+    <t>Оскорблённая мазь</t>
+  </si>
+  <si>
+    <t>Открывашка</t>
+  </si>
+  <si>
+    <t>Aelina</t>
+  </si>
+  <si>
+    <t>Аэлина</t>
+  </si>
+  <si>
+    <t>Decima</t>
+  </si>
+  <si>
+    <t>Десима</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Phoenician</t>
+  </si>
+  <si>
+    <t>Греческий</t>
+  </si>
+  <si>
+    <t>Финикийский</t>
+  </si>
+  <si>
+    <t>Dubwyn</t>
+  </si>
+  <si>
+    <t>Дубвин</t>
+  </si>
+  <si>
+    <t>Mid-Isles</t>
+  </si>
+  <si>
+    <t>Срединные острова</t>
+  </si>
+  <si>
+    <t>Nomad Bowls</t>
+  </si>
+  <si>
+    <t>Ship's Head</t>
+  </si>
+  <si>
+    <t>Silver Nails</t>
+  </si>
+  <si>
+    <t>The Witness</t>
+  </si>
+  <si>
+    <t>Potion of Terrible Strength</t>
+  </si>
+  <si>
+    <t>Чаши кочевников</t>
+  </si>
+  <si>
+    <t>Серебряные гвозди</t>
+  </si>
+  <si>
+    <t>Свидетель</t>
+  </si>
+  <si>
+    <t>Зелье страшной силы</t>
+  </si>
+  <si>
+    <t>Bronze Imitations</t>
+  </si>
+  <si>
+    <t>Бронзовые имитации</t>
+  </si>
+  <si>
+    <t>Bool's Bane</t>
   </si>
 </sst>
 </file>
@@ -844,7 +985,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,13 +1000,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,17 +1035,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1207,909 +1362,1527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H9" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N10" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H12" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N12" t="s">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N13" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H14" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N14" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K15" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N15" t="s">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K16" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L16" t="s">
-        <v>209</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="L16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H17" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="N17" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="O17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K18" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N18" t="s">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="O18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="N19" t="s">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="O19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H20" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I20" t="s">
-        <v>211</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N20" t="s">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="O20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H21" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I21" t="s">
-        <v>228</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="N21" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H22" t="s">
-        <v>229</v>
-      </c>
-      <c r="I22" t="s">
-        <v>234</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="N22" t="s">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="O22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I23" t="s">
-        <v>231</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="N23" t="s">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="O23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H24" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N24" t="s">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="O24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H25" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I25" t="s">
-        <v>236</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N25" t="s">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="O25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H26" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="I26" t="s">
-        <v>238</v>
-      </c>
-      <c r="K26" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H27" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I27" t="s">
-        <v>240</v>
-      </c>
-      <c r="K27" t="s">
-        <v>194</v>
-      </c>
-      <c r="L27" t="s">
-        <v>188</v>
-      </c>
-      <c r="N27" s="3" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H28" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I28" t="s">
-        <v>242</v>
-      </c>
-      <c r="K28" t="s">
-        <v>253</v>
-      </c>
-      <c r="L28" t="s">
-        <v>254</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="O28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K29" t="s">
-        <v>255</v>
-      </c>
-      <c r="L29" t="s">
-        <v>256</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="O29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="O30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N31" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N32" t="s">
+      <c r="O32" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N33" t="s">
+      <c r="O33" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N34" t="s">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="35" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N35" t="s">
+      <c r="O35" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N36" t="s">
+      <c r="O36" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N37" t="s">
+      <c r="O37" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N38" t="s">
+      <c r="O38" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="O38" t="s">
-        <v>252</v>
-      </c>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
